--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-05_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-05_end.xlsx
@@ -1552,7 +1552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Bloodied. Torn. Pierced. 
+    <t xml:space="preserve">Bloodied. Torn. Pierced. 
 </t>
   </si>
   <si>
@@ -1600,11 +1600,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="How old is she? ", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Fourteen. 
+    <t xml:space="preserve">[Decision(options="How old is she? ", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Fourteen. 
 </t>
   </si>
   <si>
@@ -1704,11 +1704,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  When Amiya or I stand on the battlefield... who looks at us and thinks “children?”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  We’re “monsters,” aren’t we, Doctor?
+    <t xml:space="preserve">[name="Rosmontis"]  When Amiya or I stand on the battlefield... who looks at us and thinks 'children?'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  We’re 'monsters,' aren’t we, Doctor?
 </t>
   </si>
   <si>
@@ -2008,11 +2008,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  “When you deprive a human being of her sentience, what is left? What is created?”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  “When that creation deprives us of our lives, who is at fault?”
+    <t xml:space="preserve">[name="Kal'tsit"]  'When you deprive a human being of her sentience, what is left? What is created?'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  'When that creation deprives us of our lives, who is at fault?'
 </t>
   </si>
   <si>
@@ -2024,7 +2024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  As we move on to the next battle, I may be able to teach you more. 
+    <t xml:space="preserve">[name="Kal'tsit"]  As we move on to the next battle, I may be able to teach you more. 
 </t>
   </si>
   <si>
@@ -2128,7 +2128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...”The last Wendigo will die at the hands of the Lord of Fiends?”
+    <t xml:space="preserve">[name="Kal'tsit"]  ...'The last Wendigo will die at the hands of the Lord of Fiends?'
 </t>
   </si>
   <si>
@@ -2136,15 +2136,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  The original phrasing of the prophecy was “The son of Hor-Tekrz, traitor to Sarkaz and disreputable end of the bloodline, will be executed by the Lord of Sarkaz.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Some prophecy. Whether or not there’s any extension of their “bloodline,” there are still many Wendigos living their lives in Columbia and Ursus.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...That is, if a few dozen can be called “many.”
+    <t xml:space="preserve">[name="Kal'tsit"]  The original phrasing of the prophecy was 'The son of Hor-Tekrz, traitor to Sarkaz and disreputable end of the bloodline, will be executed by the Lord of Sarkaz.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Some prophecy. Whether or not there’s any extension of their 'bloodline,' there are still many Wendigos living their lives in Columbia and Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...That is, if a few dozen can be called 'many.'
 </t>
   </si>
   <si>
@@ -2156,7 +2156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Are you getting old? Since when do you believe in “prophecies” and Sarkaz witchcraft?
+    <t xml:space="preserve">[name="Kal'tsit"]  Are you getting old? Since when do you believe in 'prophecies' and Sarkaz witchcraft?
 </t>
   </si>
   <si>
@@ -2240,7 +2240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Some time ago, an Infected clinic in Chernobog called “Azazel” traded information with us. I learned some more information about the Wendigo in Reunion's service.
+    <t xml:space="preserve">[name="Kal'tsit"]  Some time ago, an Infected clinic in Chernobog called 'Azazel' traded information with us. I learned some more information about the Wendigo in Reunion's service.
 </t>
   </si>
   <si>
@@ -2272,7 +2272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  “Do not, under any circumstances, even at Rhodes Island, speak of ‘the Lord of Fiends.’”
+    <t xml:space="preserve">[name="Kal'tsit"]  'Do not, under any circumstances, even at Rhodes Island, speak of ‘the Lord of Fiends.’'
 </t>
   </si>
   <si>
@@ -2880,7 +2880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="켈시"]  카우투스의 생리적 변화는 흡혈귀와는 차원이 달라. 우리가 카즈델을 떠난 지 벌써 삼 년이라고.
+    <t xml:space="preserve">[name="켈시"]  카우투스의 생리적 변화는 뱀파이어와는 차원이 달라. 우리가 카즈델을 떠난 지 벌써 삼 년이라고.
 </t>
   </si>
   <si>
@@ -2956,7 +2956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="와파린"]  나는 흡혈귀고, 그 늙은이는 웬디고라고 해도 말이야.
+    <t xml:space="preserve">[name="와파린"]  나는 뱀파이어고, 그 늙은이는 웬디고라고 해도 말이야.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-05_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-05_end.xlsx
@@ -1556,7 +1556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="This isn’t right.", values="1")]
+    <t xml:space="preserve">[Decision(options="This isn't right.", values="1")]
 </t>
   </si>
   <si>
@@ -1568,7 +1568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="This isn’t right!;......!;I can’t take this anymore.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="This isn't right!;......!;I can't take this anymore.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1584,15 +1584,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  I know it’s hard to watch, but—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’ll handle it. You go tend to the wounded enemies who can’t fight anymore. Also, among them are communications personnel relaying orders and intelligence. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  If they’re allowed to escape, it puts our whole operation at risk.
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  I know it's hard to watch, but—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I'll handle it. You go tend to the wounded enemies who can't fight anymore. Also, among them are communications personnel relaying orders and intelligence. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If they're allowed to escape, it puts our whole operation at risk.
 </t>
   </si>
   <si>
@@ -1608,7 +1608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="And you’re letting her...?!", values="1")]
+    <t xml:space="preserve">[Decision(options="And you're letting her...?!", values="1")]
 </t>
   </si>
   <si>
@@ -1656,7 +1656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Kal'tsit!;......!;This isn’t right.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="Kal'tsit!;......!;This isn't right.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1688,11 +1688,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Still though, you can’t...", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="You can’t—", values="1")]
+    <t xml:space="preserve">[Decision(options="Still though, you can't...", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You can't—", values="1")]
 </t>
   </si>
   <si>
@@ -1708,11 +1708,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  We’re 'monsters,' aren’t we, Doctor?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="No!;......;That’s just how you see yourself.", values="1;2;3")]
+    <t xml:space="preserve">[name="Rosmontis"]  We're 'monsters,' aren't we, Doctor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="No!;......;That's just how you see yourself.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1724,7 +1724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  It doesn’t matter what I am.
+    <t xml:space="preserve">[name="Rosmontis"]  It doesn't matter what I am.
 </t>
   </si>
   <si>
@@ -1748,15 +1748,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  ..It’s already been a few days since I watched any of their materials.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I’ve forgotten a lot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  But I only forgot. I’m not like you, Doctor, who threw away everything.
+    <t xml:space="preserve">[name="Rosmontis"]  ..It's already been a few days since I watched any of their materials.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I've forgotten a lot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But I only forgot. I'm not like you, Doctor, who threw away everything.
 </t>
   </si>
   <si>
@@ -1764,11 +1764,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  No, I didn’t mean that. But you get it, Amiya.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  ...I get it. But just... don’t say it like that.
+    <t xml:space="preserve">[name="Rosmontis"]  No, I didn't mean that. But you get it, Amiya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...I get it. But just... don't say it like that.
 </t>
   </si>
   <si>
@@ -1776,11 +1776,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I’ve lost bits and pieces of things. Lots of pictures and words.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Those feelings... feelings I can’t say, only Amiya can understand...
+    <t xml:space="preserve">[name="Rosmontis"]  I've lost bits and pieces of things. Lots of pictures and words.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Those feelings... feelings I can't say, only Amiya can understand...
 </t>
   </si>
   <si>
@@ -1788,7 +1788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Doctor... I feel like you’re complicated.
+    <t xml:space="preserve">[name="Rosmontis"]  Doctor... I feel like you're complicated.
 </t>
   </si>
   <si>
@@ -1796,11 +1796,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  They say I’m complicated too. Some of them are scared of me. Some of them say I shouldn’t be like this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  But they don’t know why I’m like this. They don’t know what I’ve been through.
+    <t xml:space="preserve">[name="Rosmontis"]  They say I'm complicated too. Some of them are scared of me. Some of them say I shouldn't be like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But they don't know why I'm like this. They don't know what I've been through.
 </t>
   </si>
   <si>
@@ -1808,11 +1808,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Even though I can’t remember anything... why are my eyes still sore? Why are my lips dry?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Who left a stain in the corridor, and why hasn’t it been cleaned? Why do I feel worried when I break a vase, but also strangely happy?
+    <t xml:space="preserve">[name="Rosmontis"]  Even though I can't remember anything... why are my eyes still sore? Why are my lips dry?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Who left a stain in the corridor, and why hasn't it been cleaned? Why do I feel worried when I break a vase, but also strangely happy?
 </t>
   </si>
   <si>
@@ -1836,11 +1836,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Why do my tears keep flowing even when I can’t even feel anymore?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Didn’t I already forget everything?
+    <t xml:space="preserve">[name="Rosmontis"]  Why do my tears keep flowing even when I can't even feel anymore?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Didn't I already forget everything?
 </t>
   </si>
   <si>
@@ -1856,11 +1856,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I can’t interfere with them. As long as Rosmontis still has hope somewhere inside her... I won’t do that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Because it’s up to her to choose what to do. She can also choose to forget.
+    <t xml:space="preserve">[name="Amiya"]  I can't interfere with them. As long as Rosmontis still has hope somewhere inside her... I won't do that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Because it's up to her to choose what to do. She can also choose to forget.
 </t>
   </si>
   <si>
@@ -1868,7 +1868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="What happened to Rosmontis?;......;I don’t know that much about her.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="What happened to Rosmontis?;......;I don't know that much about her.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1884,7 +1884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  People often have difficulty trusting one another when they’re on an actual mission.
+    <t xml:space="preserve">[name="Amiya"]  People often have difficulty trusting one another when they're on an actual mission.
 </t>
   </si>
   <si>
@@ -1896,7 +1896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  You’ll slowly begin to see... the colors of her emotions.
+    <t xml:space="preserve">[name="Amiya"]  You'll slowly begin to see... the colors of her emotions.
 </t>
   </si>
   <si>
@@ -1908,7 +1908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Why?;......;You don’t have to thank me.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="Why?;......;You don't have to thank me.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1932,7 +1932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis is one of Rhodes Island’s greatest annihilation specialists.
+    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis is one of Rhodes Island's greatest annihilation specialists.
 </t>
   </si>
   <si>
@@ -1948,11 +1948,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  —Rosmontis almost never kills. Though her tactics seems to singularly aim for that outcome, she actually focuses on disabling the enemy’s combat abilities.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Take the last battle, for example, all the enemies were disarmed, and not a single one died to Rosmontis’s attacks.
+    <t xml:space="preserve">[name="Kal'tsit"]  —Rosmontis almost never kills. Though her tactics seems to singularly aim for that outcome, she actually focuses on disabling the enemy's combat abilities.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Take the last battle, for example, all the enemies were disarmed, and not a single one died to Rosmontis's attacks.
 </t>
   </si>
   <si>
@@ -1960,7 +1960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Of course, whether or not we can keep the prisoners alive depends entirely on our ability to destroy Reunion’s leadership. Only then will we be able to send rescue teams into the core city.
+    <t xml:space="preserve">[name="Kal'tsit"]  Of course, whether or not we can keep the prisoners alive depends entirely on our ability to destroy Reunion's leadership. Only then will we be able to send rescue teams into the core city.
 </t>
   </si>
   <si>
@@ -1972,7 +1972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I can’t accept this.;......;It doesn’t make sense.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="I can't accept this.;......;It doesn't make sense.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1988,7 +1988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We made our judgment not on whether to send her to battle, but how disastrous the consequences might be if we didn’t let her become a fighter like this.
+    <t xml:space="preserve">[name="Kal'tsit"]  We made our judgment not on whether to send her to battle, but how disastrous the consequences might be if we didn't let her become a fighter like this.
 </t>
   </si>
   <si>
@@ -2004,7 +2004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Whether or not someone who has lost her sense of self can still be called a person is another topic I’m not interested in discussing. But humanity grapples with the extent and manifestation of this problem.
+    <t xml:space="preserve">[name="Kal'tsit"]  Whether or not someone who has lost her sense of self can still be called a person is another topic I'm not interested in discussing. But humanity grapples with the extent and manifestation of this problem.
 </t>
   </si>
   <si>
@@ -2020,7 +2020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Another riddle?;......;I’ll figure it out myself.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="Another riddle?;......;I'll figure it out myself.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2036,15 +2036,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  A young creature known as a deadly weapon won’t be seen as an ordinary child just because she looks young.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  —Not to mention all that they’ve been through.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...Take what you need. It’s time to head to the surface.
+    <t xml:space="preserve">[name="Kal'tsit"]  A young creature known as a deadly weapon won't be seen as an ordinary child just because she looks young.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  —Not to mention all that they've been through.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...Take what you need. It's time to head to the surface.
 </t>
   </si>
   <si>
@@ -2068,7 +2068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Warfarin"]  You know the prophecy, don’t you? Yes, there’s nothing you don’t know.
+    <t xml:space="preserve">[name="Warfarin"]  You know the prophecy, don't you? Yes, there's nothing you don't know.
 </t>
   </si>
   <si>
@@ -2096,7 +2096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Be precise, or I’m leaving.
+    <t xml:space="preserve">[name="Kal'tsit"]  Be precise, or I'm leaving.
 </t>
   </si>
   <si>
@@ -2108,7 +2108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Warfarin"]  I know what you mean. She’s grown up.
+    <t xml:space="preserve">[name="Warfarin"]  I know what you mean. She's grown up.
 </t>
   </si>
   <si>
@@ -2132,7 +2132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Warfarin"]  Correct. I’m familiar with that guerilla group, and their leader. I’m certain it’s him.
+    <t xml:space="preserve">[name="Warfarin"]  Correct. I'm familiar with that guerilla group, and their leader. I'm certain it's him.
 </t>
   </si>
   <si>
@@ -2140,7 +2140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Some prophecy. Whether or not there’s any extension of their 'bloodline,' there are still many Wendigos living their lives in Columbia and Ursus.
+    <t xml:space="preserve">[name="Kal'tsit"]  Some prophecy. Whether or not there's any extension of their 'bloodline,' there are still many Wendigos living their lives in Columbia and Ursus.
 </t>
   </si>
   <si>
@@ -2152,7 +2152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Warfarin"]  It wasn’t either of us who said it. And since you still remember it, you must have found it important. No?
+    <t xml:space="preserve">[name="Warfarin"]  It wasn't either of us who said it. And since you still remember it, you must have found it important. No?
 </t>
   </si>
   <si>
@@ -2172,7 +2172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Warfarin"]  Must we be so morbid? I’m not your little girl Closure. I won’t let you keep skirting the topic.
+    <t xml:space="preserve">[name="Warfarin"]  Must we be so morbid? I'm not your little girl Closure. I won't let you keep skirting the topic.
 </t>
   </si>
   <si>
@@ -2204,7 +2204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’m not, Warfarin. I’m not Sarkaz.
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm not, Warfarin. I'm not Sarkaz.
 </t>
   </si>
   <si>
@@ -2216,7 +2216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’ll do what I can.
+    <t xml:space="preserve">[name="Kal'tsit"]  I'll do what I can.
 </t>
   </si>
   <si>
@@ -2228,15 +2228,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Don’t get your hopes up that this will be easy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Warfarin"]  But this time, you’ll be there. As long as Dr. Kal'tsit makes her best effort, I’ll accept the outcome.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Maybe you haven’t heard, but your proposal came too late. Some things have already unfolded, and rather unfortunately.
+    <t xml:space="preserve">[name="Kal'tsit"]  Don't get your hopes up that this will be easy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  But this time, you'll be there. As long as Dr. Kal'tsit makes her best effort, I'll accept the outcome.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Maybe you haven't heard, but your proposal came too late. Some things have already unfolded, and rather unfortunately.
 </t>
   </si>
   <si>
@@ -2244,7 +2244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  What’s more, and you should know this well, anyone who stands against the most brutal blade in Ursus will soon learn whether it tastes of salt or rust.
+    <t xml:space="preserve">[name="Kal'tsit"]  What's more, and you should know this well, anyone who stands against the most brutal blade in Ursus will soon learn whether it tastes of salt or rust.
 </t>
   </si>
   <si>
@@ -2252,11 +2252,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Warfarin"]  Some patients’ days are numbered, but that number depends on the doctor treating them. It’s all up to us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...It’s all up to us.
+    <t xml:space="preserve">[name="Warfarin"]  Some patients' days are numbered, but that number depends on the doctor treating them. It's all up to us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...It's all up to us.
 </t>
   </si>
   <si>
@@ -2264,15 +2264,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I won’t discipline you for it, but I may do something to put an end to it once and for all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You are not to say I’m frightening, Warfarin. We’ve been over this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  'Do not, under any circumstances, even at Rhodes Island, speak of ‘the Lord of Fiends.’'
+    <t xml:space="preserve">[name="Kal'tsit"]  I won't discipline you for it, but I may do something to put an end to it once and for all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You are not to say I'm frightening, Warfarin. We've been over this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Do not, under any circumstances, even at Rhodes Island, speak of 'the Lord of Fiends.'
 </t>
   </si>
   <si>
@@ -2304,7 +2304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I’m not totally sure, but...
+    <t xml:space="preserve">[name="Amiya"]  I'm not totally sure, but...
 </t>
   </si>
   <si>
